--- a/files/weather.xlsx
+++ b/files/weather.xlsx
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -371,17 +371,17 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>11㎍/㎥좋음</t>
+          <t>29㎍/㎥좋음</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>35㎍/㎥보통</t>
+          <t>14㎍/㎥좋음</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>0.055ppm보통</t>
+          <t>0.054ppm보통</t>
         </is>
       </c>
     </row>

--- a/files/weather.xlsx
+++ b/files/weather.xlsx
@@ -356,32 +356,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>11˚</t>
+          <t>4˚</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>21˚</t>
+          <t>19˚</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>29㎍/㎥좋음</t>
+          <t>47㎍/㎥보통</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>14㎍/㎥좋음</t>
+          <t>19㎍/㎥보통</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>0.054ppm보통</t>
+          <t>0.019ppm좋음</t>
         </is>
       </c>
     </row>
@@ -393,12 +393,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4°/19°</t>
+          <t>3°/18°</t>
         </is>
       </c>
     </row>
@@ -415,7 +415,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3°/19°</t>
+          <t>4°/21°</t>
         </is>
       </c>
     </row>

--- a/files/weather.xlsx
+++ b/files/weather.xlsx
@@ -356,12 +356,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>4˚</t>
+          <t>2˚</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -371,17 +371,17 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>47㎍/㎥보통</t>
+          <t>40㎍/㎥보통</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>19㎍/㎥보통</t>
+          <t>22㎍/㎥보통</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>0.019ppm좋음</t>
+          <t>0.035ppm보통</t>
         </is>
       </c>
     </row>
@@ -393,12 +393,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3°/18°</t>
+          <t>4°/21°</t>
         </is>
       </c>
     </row>
@@ -410,12 +410,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4°/21°</t>
+          <t>7°/19°</t>
         </is>
       </c>
     </row>

--- a/files/weather.xlsx
+++ b/files/weather.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -356,32 +356,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4°</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2˚</t>
+          <t>3˚</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>19˚</t>
+          <t>24˚</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>40㎍/㎥보통</t>
+          <t>50㎍/㎥보통</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>22㎍/㎥보통</t>
+          <t>17㎍/㎥보통</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>0.035ppm보통</t>
+          <t>0.023ppm좋음</t>
         </is>
       </c>
     </row>
@@ -398,7 +398,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4°/21°</t>
+          <t>6°/23°</t>
         </is>
       </c>
     </row>
@@ -410,16 +410,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7°/19°</t>
+          <t>7°/23°</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/files/weather.xlsx
+++ b/files/weather.xlsx
@@ -356,56 +356,56 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>4°</t>
+          <t>17°</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>3˚</t>
+          <t>16˚</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>24˚</t>
+          <t>27˚</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>50㎍/㎥보통</t>
+          <t>49㎍/㎥보통</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>17㎍/㎥보통</t>
+          <t>21㎍/㎥보통</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>0.023ppm좋음</t>
+          <t>0.060ppm보통</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6°/23°</t>
+          <t>18°/29°</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -415,7 +415,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7°/23°</t>
+          <t>16°/31°</t>
         </is>
       </c>
     </row>

--- a/files/weather.xlsx
+++ b/files/weather.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -356,56 +424,56 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>17°</t>
+          <t>19°</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>16˚</t>
+          <t>19˚</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>27˚</t>
+          <t>22˚</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>49㎍/㎥보통</t>
+          <t>3㎍/㎥좋음</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>21㎍/㎥보통</t>
+          <t>1㎍/㎥좋음</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>0.060ppm보통</t>
+          <t>0.036ppm보통</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>90</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18°/29°</t>
+          <t>19°/23°</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>90</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -415,11 +483,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16°/31°</t>
+          <t>18°/27°</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/files/weather.xlsx
+++ b/files/weather.xlsx
@@ -424,66 +424,66 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>19°</t>
+          <t>25°</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>19˚</t>
+          <t>23˚</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>22˚</t>
+          <t>26˚</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>3㎍/㎥좋음</t>
+          <t>22㎍/㎥좋음</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>1㎍/㎥좋음</t>
+          <t>-㎍/㎥</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>0.036ppm보통</t>
+          <t>0.040ppm보통</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19°/23°</t>
+          <t>21°/24°</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>18°/27°</t>
+          <t>21°/26°</t>
         </is>
       </c>
     </row>

--- a/files/weather.xlsx
+++ b/files/weather.xlsx
@@ -429,27 +429,27 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>23˚</t>
+          <t>25˚</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>26˚</t>
+          <t>28˚</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>22㎍/㎥좋음</t>
+          <t>9㎍/㎥좋음</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>-㎍/㎥</t>
+          <t>6㎍/㎥좋음</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>0.040ppm보통</t>
+          <t>0.015ppm좋음</t>
         </is>
       </c>
     </row>
@@ -461,12 +461,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21°/24°</t>
+          <t>24°/31°</t>
         </is>
       </c>
     </row>
@@ -478,12 +478,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21°/26°</t>
+          <t>24°/31°</t>
         </is>
       </c>
     </row>

--- a/files/weather.xlsx
+++ b/files/weather.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -424,70 +424,70 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>25°</t>
+          <t>6°</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>25˚</t>
+          <t>-2˚</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>28˚</t>
+          <t>10˚</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>9㎍/㎥좋음</t>
+          <t>43㎍/㎥보통</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>6㎍/㎥좋음</t>
+          <t>29㎍/㎥보통</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>0.015ppm좋음</t>
+          <t>0.035ppm보통</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>24°/31°</t>
+          <t>-1°/10°</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>24°/31°</t>
+          <t>0°/8°</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/files/weather.xlsx
+++ b/files/weather.xlsx
@@ -424,66 +424,66 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>25°</t>
+          <t>4°</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>25˚</t>
+          <t>-1˚</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>28˚</t>
+          <t>8˚</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>9㎍/㎥좋음</t>
+          <t>38㎍/㎥보통</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>6㎍/㎥좋음</t>
+          <t>23㎍/㎥보통</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>0.015ppm좋음</t>
+          <t>0.021ppm좋음</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>24°/31°</t>
+          <t>-3°/9°</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>24°/31°</t>
+          <t>-1°/10°</t>
         </is>
       </c>
     </row>
